--- a/Project/Mars/ER DIAGRAM.xlsx
+++ b/Project/Mars/ER DIAGRAM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://musigma-my.sharepoint.com/personal/logith_r_mu-sigma_com/Documents/Desktop/Assesment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://musigma-my.sharepoint.com/personal/logith_r_mu-sigma_com/Documents/Desktop/Personal/Project/Mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{4D95B054-49B5-4C7C-A6CE-F90C500BC643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8585E0C4-E684-4B1C-9023-508AD593B863}"/>
@@ -338,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -362,11 +362,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -374,12 +374,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2206,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D90C46-C603-408B-A204-F31F64FC555F}">
-  <dimension ref="G6:U39"/>
+  <dimension ref="G6:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2224,20 +2223,20 @@
     <col min="17" max="17" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="7:21" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G6" s="11" t="s">
+    <row r="6" spans="7:17" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="7:21" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="7:21" ht="16" x14ac:dyDescent="0.35">
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="7:17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="7:17" ht="16" x14ac:dyDescent="0.35">
       <c r="G9" s="13" t="s">
         <v>0</v>
       </c>
@@ -2247,7 +2246,7 @@
       </c>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="7:21" ht="16" x14ac:dyDescent="0.35">
+    <row r="10" spans="7:17" ht="16" x14ac:dyDescent="0.35">
       <c r="G10" s="10" t="s">
         <v>6</v>
       </c>
@@ -2265,8 +2264,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="7:21" x14ac:dyDescent="0.35">
-      <c r="G11" s="15"/>
+    <row r="11" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G11" s="11"/>
       <c r="H11" s="7" t="s">
         <v>5</v>
       </c>
@@ -2276,12 +2275,12 @@
       <c r="K11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="15"/>
+      <c r="M11" s="11"/>
       <c r="N11" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="7:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
         <v>7</v>
@@ -2295,7 +2294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="7:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
         <v>9</v>
@@ -2309,7 +2308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="7:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
         <v>11</v>
@@ -2320,9 +2319,8 @@
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="6"/>
-      <c r="U14" s="16"/>
-    </row>
-    <row r="15" spans="7:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
         <v>13</v>
@@ -2332,7 +2330,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="7:21" ht="16" x14ac:dyDescent="0.35">
+    <row r="16" spans="7:17" ht="16" x14ac:dyDescent="0.35">
       <c r="G16" s="5"/>
       <c r="H16" s="1" t="s">
         <v>15</v>
@@ -2405,7 +2403,7 @@
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -2455,7 +2453,7 @@
       <c r="H26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="17"/>
+      <c r="J26" s="12"/>
       <c r="M26" s="8"/>
       <c r="N26" s="9"/>
     </row>
@@ -2507,7 +2505,7 @@
       <c r="K38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O38" s="17"/>
+      <c r="O38" s="12"/>
     </row>
     <row r="39" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J39" s="5"/>
